--- a/doc/Time_Recording.xlsx
+++ b/doc/Time_Recording.xlsx
@@ -9,8 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Time Recording" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Team" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Keywords" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Keywords" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t xml:space="preserve">Time Recording</t>
   </si>
@@ -54,60 +53,24 @@
     <t xml:space="preserve">Keyword</t>
   </si>
   <si>
+    <t xml:space="preserve">Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reasarch about blockchains (YT videos, Websites, Papers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reasarch about Ethereum (YT videos, Websites, Papers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administration</t>
+  </si>
+  <si>
     <t xml:space="preserve">Documentation</t>
   </si>
   <si>
-    <t xml:space="preserve">Administration</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meeting</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elharouny, Marwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enchelmaier, Christian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwartz, Emmanuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maucher, Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Müller, Stefan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMü</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bäuerle, Florian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FBä</t>
-  </si>
-  <si>
     <t xml:space="preserve">Misc</t>
   </si>
   <si>
@@ -115,9 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research</t>
   </si>
   <si>
     <t xml:space="preserve">Testing</t>
@@ -394,11 +354,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -410,11 +370,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -494,7 +454,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Accent1" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -569,16 +529,16 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.4615384615385"/>
   </cols>
   <sheetData>
@@ -607,6 +567,8 @@
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
@@ -617,8 +579,9 @@
       </c>
       <c r="B4" s="11" t="n">
         <f aca="false">SUM(D7:D89)</f>
-        <v>0.166666666666667</v>
-      </c>
+        <v>0.541666666666666</v>
+      </c>
+      <c r="C4" s="0"/>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
@@ -627,6 +590,7 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
       <c r="B5" s="8"/>
+      <c r="C5" s="0"/>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
@@ -656,49 +620,57 @@
       </c>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="n">
-        <v>42121</v>
+        <v>42647</v>
       </c>
       <c r="B7" s="17" t="n">
-        <v>0.291666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="C7" s="17" t="n">
-        <v>0.333333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="D7" s="18" t="n">
         <f aca="false">C7-B7</f>
-        <v>0.0416666666666666</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="G7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="n">
-        <v>42121</v>
+        <v>42648</v>
       </c>
       <c r="B8" s="17" t="n">
-        <v>0.333333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="C8" s="17" t="n">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="D8" s="18" t="n">
         <f aca="false">C8-B8</f>
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
+        <v>0.208333333333333</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="G8" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="n">
-        <v>42121</v>
+        <v>42649</v>
       </c>
       <c r="B9" s="22" t="n">
         <v>0.375</v>
@@ -708,12 +680,16 @@
       </c>
       <c r="D9" s="18" t="n">
         <f aca="false">C9-B9</f>
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
+        <v>0.083333333333333</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,7 +1660,7 @@
       </c>
       <c r="D90" s="35" t="n">
         <f aca="false">SUM(D7:D89)</f>
-        <v>0.166666666666667</v>
+        <v>0.541666666666666</v>
       </c>
       <c r="E90" s="36"/>
       <c r="F90" s="37"/>
@@ -1710,109 +1686,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B5:C12"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.4615384615385"/>
-  </cols>
-  <sheetData>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="B5:B13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -1823,42 +1706,42 @@
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="40" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="40" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="40" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="41" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="40" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="40" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="40" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Time_Recording.xlsx
+++ b/doc/Time_Recording.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Time Recording" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t xml:space="preserve">Time Recording</t>
   </si>
   <si>
-    <t xml:space="preserve">Status: 27.04.2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">Time total:</t>
   </si>
   <si>
@@ -56,19 +53,55 @@
     <t xml:space="preserve">Research</t>
   </si>
   <si>
-    <t xml:space="preserve">Reasarch about blockchains (YT videos, Websites, Papers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reasarch about Ethereum (YT videos, Websites, Papers)</t>
+    <t xml:space="preserve">Research about blockchains (YT videos, Websites, Papers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resaerch about blockchains (YT videos, Websites, Papers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research about Ethereum (YT videos, Websites, Papers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research about Ethereum and IPFS (YT videos, Websites, Papers) smart contracts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly meeting: Set up Ethereum Project / How to program a smart contract ? / Research papers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting up a blockain, wallet &amp; miners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connecting mist client to geth node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly meeting: Set up a private test-net network with 4 nodes / Deploying a smart contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research about testRPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting up 4VMs with testRPC + geth &amp; its dependancies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trying to figure out a link between geth &amp; testRPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting up Truffle (for developping smart contract) + Installing Linux on Desktop PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting up a GIT Repo (Bitbucket, and finally GitHub</t>
   </si>
   <si>
     <t xml:space="preserve">Administration</t>
   </si>
   <si>
     <t xml:space="preserve">Documentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting</t>
   </si>
   <si>
     <t xml:space="preserve">Misc</t>
@@ -91,8 +124,8 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY;@"/>
     <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="[H]:MM"/>
-    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="167" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="168" formatCode="[H]:MM"/>
     <numFmt numFmtId="169" formatCode="H:MM"/>
   </numFmts>
   <fonts count="9">
@@ -306,7 +339,7 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -322,7 +355,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -342,7 +375,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -350,7 +383,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,11 +415,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -418,7 +451,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -524,22 +557,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="1:90"/>
+  <dimension ref="1:93"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.2704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="19.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.2040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -551,8 +584,9 @@
       <c r="D1" s="6"/>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
-      <c r="G1" s="7" t="s">
-        <v>1</v>
+      <c r="G1" s="7" t="n">
+        <f aca="true">TODAY()</f>
+        <v>42662</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,11 +609,11 @@
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="11" t="n">
-        <f aca="false">SUM(D7:D89)</f>
-        <v>0.541666666666666</v>
+        <f aca="false">SUM(D7:D92)</f>
+        <v>3.75</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
@@ -598,29 +632,29 @@
     </row>
     <row r="6" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="n">
         <v>42647</v>
       </c>
@@ -635,16 +669,16 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>11</v>
-      </c>
       <c r="G7" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="n">
         <v>42648</v>
       </c>
@@ -659,16 +693,16 @@
         <v>0.208333333333333</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="n">
         <v>42649</v>
       </c>
@@ -683,233 +717,418 @@
         <v>0.083333333333333</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="26" t="n">
+        <v>42649</v>
+      </c>
+      <c r="B10" s="22" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C10" s="22" t="n">
+        <v>0.708333333333333</v>
+      </c>
       <c r="D10" s="18" t="n">
         <f aca="false">C10-B10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+        <v>0.125</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="n">
+        <v>42650</v>
+      </c>
+      <c r="B11" s="22" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C11" s="22" t="n">
+        <v>0.666666666666667</v>
+      </c>
       <c r="D11" s="18" t="n">
         <f aca="false">C11-B11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="26" t="n">
+        <v>42653</v>
+      </c>
+      <c r="B12" s="22" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C12" s="22" t="n">
+        <v>0.458333333333333</v>
+      </c>
       <c r="D12" s="18" t="n">
         <f aca="false">C12-B12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+        <v>0.0416666666666666</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="26" t="n">
+        <v>42653</v>
+      </c>
+      <c r="B13" s="22" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C13" s="22" t="n">
+        <v>0.541666666666667</v>
+      </c>
       <c r="D13" s="18" t="n">
         <f aca="false">C13-B13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="26" t="n">
+        <v>42653</v>
+      </c>
+      <c r="B14" s="22" t="n">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="C14" s="22" t="n">
+        <v>0.708333333333333</v>
+      </c>
       <c r="D14" s="18" t="n">
         <f aca="false">C14-B14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+        <v>0.104166666666667</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="26" t="n">
+        <v>42654</v>
+      </c>
+      <c r="B15" s="22" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="22" t="n">
+        <v>0.729166666666667</v>
+      </c>
       <c r="D15" s="18" t="n">
         <f aca="false">C15-B15</f>
-        <v>0</v>
+        <v>0.354166666666667</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26" t="n">
+        <v>42684</v>
+      </c>
+      <c r="B16" s="22" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C16" s="22" t="n">
+        <v>0.708333333333333</v>
+      </c>
       <c r="D16" s="18" t="n">
         <f aca="false">C16-B16</f>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="26" t="n">
+        <v>42714</v>
+      </c>
+      <c r="B17" s="22" t="n">
+        <v>1.39583333333333</v>
+      </c>
+      <c r="C17" s="22" t="n">
+        <v>1.70833333333333</v>
+      </c>
       <c r="D17" s="18" t="n">
         <f aca="false">C17-B17</f>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="26" t="n">
+        <v>42656</v>
+      </c>
+      <c r="B18" s="22" t="n">
+        <v>2.39583333333333</v>
+      </c>
+      <c r="C18" s="22" t="n">
+        <v>2.70833333333333</v>
+      </c>
       <c r="D18" s="18" t="n">
         <f aca="false">C18-B18</f>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="26" t="n">
+        <v>42657</v>
+      </c>
+      <c r="B19" s="22" t="n">
+        <v>3.39583333333333</v>
+      </c>
+      <c r="C19" s="22" t="n">
+        <v>3.70833333333333</v>
+      </c>
       <c r="D19" s="18" t="n">
         <f aca="false">C19-B19</f>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
+      <c r="F19" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="26" t="n">
+        <v>42660</v>
+      </c>
+      <c r="B20" s="22" t="n">
+        <v>4.39583333333333</v>
+      </c>
+      <c r="C20" s="22" t="n">
+        <v>4.70833333333333</v>
+      </c>
       <c r="D20" s="18" t="n">
         <f aca="false">C20-B20</f>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="26" t="n">
+        <v>42660</v>
+      </c>
+      <c r="B21" s="22" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C21" s="22" t="n">
+        <v>0.458333333333333</v>
+      </c>
       <c r="D21" s="18" t="n">
         <f aca="false">C21-B21</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+        <v>0.0416666666666666</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="26" t="n">
+        <v>42660</v>
+      </c>
+      <c r="B22" s="22" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C22" s="22" t="n">
+        <v>0.520833333333333</v>
+      </c>
       <c r="D22" s="18" t="n">
         <f aca="false">C22-B22</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
+        <v>0.0625000000000001</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="26" t="n">
+        <v>42660</v>
+      </c>
+      <c r="B23" s="22" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C23" s="22" t="n">
+        <v>0.708333333333333</v>
+      </c>
       <c r="D23" s="18" t="n">
         <f aca="false">C23-B23</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
+        <v>0.125</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="26" t="n">
+        <v>42661</v>
+      </c>
+      <c r="B24" s="22" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C24" s="22" t="n">
+        <v>0.5</v>
+      </c>
       <c r="D24" s="18" t="n">
         <f aca="false">C24-B24</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="26" t="n">
+        <v>42661</v>
+      </c>
+      <c r="B25" s="22" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C25" s="22" t="n">
+        <v>0.708333333333333</v>
+      </c>
       <c r="D25" s="18" t="n">
         <f aca="false">C25-B25</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="26" t="n">
+        <v>42662</v>
+      </c>
+      <c r="B26" s="22" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C26" s="22" t="n">
+        <v>0.5</v>
+      </c>
       <c r="D26" s="18" t="n">
         <f aca="false">C26-B26</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+        <v>0.125</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="26" t="n">
+        <v>42662</v>
+      </c>
+      <c r="B27" s="22" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C27" s="22" t="n">
+        <v>0.708333333333333</v>
+      </c>
       <c r="D27" s="18" t="n">
         <f aca="false">C27-B27</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26"/>
+        <v>0.125</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="26" t="n">
+        <f aca="false">DATE(2016,10,4)</f>
+        <v>42647</v>
+      </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="18" t="n">
@@ -920,8 +1139,11 @@
       <c r="F28" s="24"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="26" t="n">
+        <f aca="false">DATE(2016,10,4)</f>
+        <v>42647</v>
+      </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="18" t="n">
@@ -932,8 +1154,11 @@
       <c r="F29" s="24"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="26" t="n">
+        <f aca="false">DATE(2016,10,4)</f>
+        <v>42647</v>
+      </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="18" t="n">
@@ -944,7 +1169,7 @@
       <c r="F30" s="24"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="26"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -956,7 +1181,7 @@
       <c r="F31" s="24"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="26"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -968,7 +1193,7 @@
       <c r="F32" s="24"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -980,7 +1205,7 @@
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -1194,7 +1419,7 @@
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="24"/>
-      <c r="G51" s="23"/>
+      <c r="G51" s="25"/>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="26"/>
@@ -1206,7 +1431,7 @@
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="24"/>
-      <c r="G52" s="23"/>
+      <c r="G52" s="25"/>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="26"/>
@@ -1218,7 +1443,7 @@
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="24"/>
-      <c r="G53" s="23"/>
+      <c r="G53" s="25"/>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="26"/>
@@ -1242,7 +1467,7 @@
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="24"/>
-      <c r="G55" s="25"/>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="26"/>
@@ -1290,7 +1515,7 @@
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="24"/>
-      <c r="G59" s="25"/>
+      <c r="G59" s="23"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="26"/>
@@ -1302,7 +1527,7 @@
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="24"/>
-      <c r="G60" s="25"/>
+      <c r="G60" s="23"/>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="26"/>
@@ -1641,30 +1866,66 @@
       <c r="G88" s="25"/>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="27"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
       <c r="D89" s="18" t="n">
         <f aca="false">C89-B89</f>
         <v>0</v>
       </c>
-      <c r="E89" s="29"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="31"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="25"/>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="32"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="35" t="n">
-        <f aca="false">SUM(D7:D89)</f>
-        <v>0.541666666666666</v>
-      </c>
-      <c r="E90" s="36"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="38"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="18" t="n">
+        <f aca="false">C90-B90</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="23"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="25"/>
+    </row>
+    <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="26"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="18" t="n">
+        <f aca="false">C91-B91</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="23"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="25"/>
+    </row>
+    <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="27"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="18" t="n">
+        <f aca="false">C92-B92</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="29"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="31"/>
+    </row>
+    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="32"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="35" t="n">
+        <f aca="false">SUM(D7:D92)</f>
+        <v>3.75</v>
+      </c>
+      <c r="E93" s="36"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1694,54 +1955,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="40" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="40" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="40" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="41" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="40" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="40" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Time_Recording.xlsx
+++ b/doc/Time_Recording.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
   <si>
     <t xml:space="preserve">Time Recording</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t xml:space="preserve">Setting up a blockain, wallet &amp; miners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trying to connect ethereum wallet to the remote blockchain in order to transfer a smart contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trying to connect mist browser to the remote blockchain in order to transfer a smart contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decentralized document management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blockchain papers</t>
   </si>
   <si>
     <t xml:space="preserve">Connecting mist client to geth node</t>
@@ -128,7 +140,7 @@
     <numFmt numFmtId="168" formatCode="[H]:MM"/>
     <numFmt numFmtId="169" formatCode="H:MM"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -181,6 +193,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -310,7 +328,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -415,6 +433,14 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -471,7 +497,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -560,19 +586,18 @@
   <dimension ref="1:93"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.2704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="47.515306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="19.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="46.9795918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="19.5714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -586,7 +611,7 @@
       <c r="F1" s="0"/>
       <c r="G1" s="7" t="n">
         <f aca="true">TODAY()</f>
-        <v>42662</v>
+        <v>42663</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,8 +703,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="n">
+        <f aca="false">DATE(YEAR(A7),MONTH(A7),DAY(A7)+1)</f>
         <v>42648</v>
       </c>
       <c r="B8" s="17" t="n">
@@ -704,6 +730,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="n">
+        <f aca="false">DATE(YEAR(A8),MONTH(A8),DAY(A8)+1)</f>
         <v>42649</v>
       </c>
       <c r="B9" s="22" t="n">
@@ -726,8 +753,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="n">
+        <f aca="false">DATE(YEAR(A8),MONTH(A8),DAY(A8)+1)</f>
         <v>42649</v>
       </c>
       <c r="B10" s="22" t="n">
@@ -752,6 +780,7 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="26" t="n">
+        <f aca="false">DATE(YEAR(A9),MONTH(A9),DAY(A9)+1)</f>
         <v>42650</v>
       </c>
       <c r="B11" s="22" t="n">
@@ -776,6 +805,7 @@
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="n">
+        <f aca="false">DATE(YEAR(A9),MONTH(A9),DAY(A9)+4)</f>
         <v>42653</v>
       </c>
       <c r="B12" s="22" t="n">
@@ -800,6 +830,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="n">
+        <f aca="false">DATE(YEAR(A9),MONTH(A9),DAY(A9)+4)</f>
         <v>42653</v>
       </c>
       <c r="B13" s="22" t="n">
@@ -824,6 +855,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="n">
+        <f aca="false">DATE(YEAR(A9),MONTH(A9),DAY(A9)+4)</f>
         <v>42653</v>
       </c>
       <c r="B14" s="22" t="n">
@@ -846,9 +878,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="n">
-        <v>42654</v>
+        <f aca="false">DATE(YEAR(A9),MONTH(A9),DAY(A9)+4)</f>
+        <v>42653</v>
       </c>
       <c r="B15" s="22" t="n">
         <v>0.375</v>
@@ -860,13 +893,20 @@
         <f aca="false">C15-B15</f>
         <v>0.354166666666667</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="n">
-        <v>42684</v>
+        <f aca="false">DATE(YEAR(A15),MONTH(A15),DAY(A15)+1)</f>
+        <v>42654</v>
       </c>
       <c r="B16" s="22" t="n">
         <v>0.395833333333333</v>
@@ -878,13 +918,20 @@
         <f aca="false">C16-B16</f>
         <v>0.3125</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
+      <c r="E16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="n">
-        <v>42714</v>
+        <f aca="false">DATE(YEAR(A16),MONTH(A16),DAY(A16)+1)</f>
+        <v>42655</v>
       </c>
       <c r="B17" s="22" t="n">
         <v>1.39583333333333</v>
@@ -896,12 +943,19 @@
         <f aca="false">C17-B17</f>
         <v>0.3125</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
+      <c r="E17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="n">
+        <f aca="false">DATE(YEAR(A17),MONTH(A17),DAY(A17)+1)</f>
         <v>42656</v>
       </c>
       <c r="B18" s="22" t="n">
@@ -914,12 +968,19 @@
         <f aca="false">C18-B18</f>
         <v>0.3125</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="E18" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="n">
+        <f aca="false">DATE(YEAR(A18),MONTH(A18),DAY(A18)+1)</f>
         <v>42657</v>
       </c>
       <c r="B19" s="22" t="n">
@@ -932,14 +993,19 @@
         <f aca="false">C19-B19</f>
         <v>0.3125</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="F19" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="25"/>
+        <v>22</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="n">
+        <f aca="false">DATE(YEAR(A19),MONTH(A19),DAY(A19)+3)</f>
         <v>42660</v>
       </c>
       <c r="B20" s="22" t="n">
@@ -953,11 +1019,16 @@
         <v>0.3125</v>
       </c>
       <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="n">
+        <f aca="false">DATE(YEAR(A19),MONTH(A19),DAY(A19)+3)</f>
         <v>42660</v>
       </c>
       <c r="B21" s="22" t="n">
@@ -974,14 +1045,14 @@
         <v>14</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="n">
+      <c r="A22" s="28" t="n">
         <v>42660</v>
       </c>
       <c r="B22" s="22" t="n">
@@ -998,14 +1069,15 @@
         <v>16</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="n">
+        <f aca="false">DATE(YEAR(A19),MONTH(A19),DAY(A19)+3)</f>
         <v>42660</v>
       </c>
       <c r="B23" s="22" t="n">
@@ -1022,7 +1094,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>16</v>
@@ -1030,6 +1102,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="n">
+        <f aca="false">DATE(YEAR(A23),MONTH(A23),DAY(A23)+1)</f>
         <v>42661</v>
       </c>
       <c r="B24" s="22" t="n">
@@ -1046,7 +1119,7 @@
         <v>9</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>9</v>
@@ -1054,6 +1127,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="26" t="n">
+        <f aca="false">DATE(YEAR(A23),MONTH(A23),DAY(A23)+1)</f>
         <v>42661</v>
       </c>
       <c r="B25" s="22" t="n">
@@ -1070,7 +1144,7 @@
         <v>9</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>9</v>
@@ -1078,6 +1152,7 @@
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="n">
+        <f aca="false">DATE(YEAR(A24),MONTH(A24),DAY(A24)+1)</f>
         <v>42662</v>
       </c>
       <c r="B26" s="22" t="n">
@@ -1094,7 +1169,7 @@
         <v>16</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>16</v>
@@ -1102,6 +1177,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="n">
+        <f aca="false">DATE(YEAR(A24),MONTH(A24),DAY(A24)+1)</f>
         <v>42662</v>
       </c>
       <c r="B27" s="22" t="n">
@@ -1118,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>16</v>
@@ -1126,8 +1202,8 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="26" t="n">
-        <f aca="false">DATE(2016,10,4)</f>
-        <v>42647</v>
+        <f aca="false">DATE(YEAR(A27),MONTH(A27),DAY(A27)+1)</f>
+        <v>42663</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -1141,8 +1217,8 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="26" t="n">
-        <f aca="false">DATE(2016,10,4)</f>
-        <v>42647</v>
+        <f aca="false">DATE(YEAR(A28),MONTH(A28),DAY(A28)+1)</f>
+        <v>42664</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -1156,8 +1232,8 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="26" t="n">
-        <f aca="false">DATE(2016,10,4)</f>
-        <v>42647</v>
+        <f aca="false">DATE(YEAR(A29),MONTH(A29),DAY(A29)+1)</f>
+        <v>42665</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -1170,7 +1246,10 @@
       <c r="G30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26"/>
+      <c r="A31" s="26" t="n">
+        <f aca="false">DATE(YEAR(A30),MONTH(A30),DAY(A30)+1)</f>
+        <v>42666</v>
+      </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="18" t="n">
@@ -1182,7 +1261,7 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="18" t="n">
@@ -1194,7 +1273,7 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="18" t="n">
@@ -1206,7 +1285,7 @@
       <c r="G33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="18" t="n">
@@ -1217,8 +1296,8 @@
       <c r="F34" s="24"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="28"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="18" t="n">
@@ -1229,8 +1308,8 @@
       <c r="F35" s="24"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="28"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="18" t="n">
@@ -1241,8 +1320,8 @@
       <c r="F36" s="24"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="28"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="18" t="n">
@@ -1253,8 +1332,8 @@
       <c r="F37" s="24"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="28"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="18" t="n">
@@ -1265,8 +1344,8 @@
       <c r="F38" s="24"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="28"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="18" t="n">
@@ -1277,8 +1356,8 @@
       <c r="F39" s="24"/>
       <c r="G39" s="25"/>
     </row>
-    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="28"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="18" t="n">
@@ -1289,8 +1368,8 @@
       <c r="F40" s="24"/>
       <c r="G40" s="25"/>
     </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="26"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="28"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="18" t="n">
@@ -1301,8 +1380,8 @@
       <c r="F41" s="24"/>
       <c r="G41" s="25"/>
     </row>
-    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="26"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="28"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
       <c r="D42" s="18" t="n">
@@ -1313,8 +1392,8 @@
       <c r="F42" s="24"/>
       <c r="G42" s="25"/>
     </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="28"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="18" t="n">
@@ -1325,8 +1404,8 @@
       <c r="F43" s="24"/>
       <c r="G43" s="25"/>
     </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="26"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="28"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
       <c r="D44" s="18" t="n">
@@ -1337,8 +1416,8 @@
       <c r="F44" s="24"/>
       <c r="G44" s="25"/>
     </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="26"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="28"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
       <c r="D45" s="18" t="n">
@@ -1349,8 +1428,8 @@
       <c r="F45" s="24"/>
       <c r="G45" s="25"/>
     </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="26"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="28"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="18" t="n">
@@ -1361,8 +1440,8 @@
       <c r="F46" s="24"/>
       <c r="G46" s="25"/>
     </row>
-    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="26"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="28"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
       <c r="D47" s="18" t="n">
@@ -1373,8 +1452,8 @@
       <c r="F47" s="24"/>
       <c r="G47" s="25"/>
     </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="26"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="28"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="18" t="n">
@@ -1385,8 +1464,8 @@
       <c r="F48" s="24"/>
       <c r="G48" s="25"/>
     </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="26"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="28"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="18" t="n">
@@ -1397,8 +1476,8 @@
       <c r="F49" s="24"/>
       <c r="G49" s="25"/>
     </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="26"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="28"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="18" t="n">
@@ -1409,8 +1488,8 @@
       <c r="F50" s="24"/>
       <c r="G50" s="25"/>
     </row>
-    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="26"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="28"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="18" t="n">
@@ -1421,8 +1500,8 @@
       <c r="F51" s="24"/>
       <c r="G51" s="25"/>
     </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="26"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="28"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
       <c r="D52" s="18" t="n">
@@ -1433,8 +1512,8 @@
       <c r="F52" s="24"/>
       <c r="G52" s="25"/>
     </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="26"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="28"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
       <c r="D53" s="18" t="n">
@@ -1445,8 +1524,8 @@
       <c r="F53" s="24"/>
       <c r="G53" s="25"/>
     </row>
-    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="26"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="28"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="18" t="n">
@@ -1457,8 +1536,8 @@
       <c r="F54" s="24"/>
       <c r="G54" s="23"/>
     </row>
-    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="26"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="28"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
       <c r="D55" s="18" t="n">
@@ -1469,8 +1548,8 @@
       <c r="F55" s="24"/>
       <c r="G55" s="23"/>
     </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="26"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="28"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
       <c r="D56" s="18" t="n">
@@ -1481,8 +1560,8 @@
       <c r="F56" s="24"/>
       <c r="G56" s="23"/>
     </row>
-    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="26"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="28"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
       <c r="D57" s="18" t="n">
@@ -1493,8 +1572,8 @@
       <c r="F57" s="24"/>
       <c r="G57" s="23"/>
     </row>
-    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="26"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="28"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="18" t="n">
@@ -1505,8 +1584,8 @@
       <c r="F58" s="24"/>
       <c r="G58" s="25"/>
     </row>
-    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="26"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="28"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
       <c r="D59" s="18" t="n">
@@ -1517,8 +1596,8 @@
       <c r="F59" s="24"/>
       <c r="G59" s="23"/>
     </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="26"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="28"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
       <c r="D60" s="18" t="n">
@@ -1529,8 +1608,8 @@
       <c r="F60" s="24"/>
       <c r="G60" s="23"/>
     </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="26"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="28"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
       <c r="D61" s="18" t="n">
@@ -1542,7 +1621,7 @@
       <c r="G61" s="25"/>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="26"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
       <c r="D62" s="18" t="n">
@@ -1554,7 +1633,7 @@
       <c r="G62" s="25"/>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="26"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
       <c r="D63" s="18" t="n">
@@ -1566,7 +1645,7 @@
       <c r="G63" s="25"/>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="26"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
       <c r="D64" s="18" t="n">
@@ -1578,7 +1657,7 @@
       <c r="G64" s="25"/>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="26"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
       <c r="D65" s="18" t="n">
@@ -1590,7 +1669,7 @@
       <c r="G65" s="25"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="26"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
       <c r="D66" s="18" t="n">
@@ -1602,7 +1681,7 @@
       <c r="G66" s="25"/>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="26"/>
+      <c r="A67" s="28"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
       <c r="D67" s="18" t="n">
@@ -1614,7 +1693,7 @@
       <c r="G67" s="25"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="26"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
       <c r="D68" s="18" t="n">
@@ -1626,7 +1705,7 @@
       <c r="G68" s="25"/>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="26"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
       <c r="D69" s="18" t="n">
@@ -1638,7 +1717,7 @@
       <c r="G69" s="25"/>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="26"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
       <c r="D70" s="18" t="n">
@@ -1650,7 +1729,7 @@
       <c r="G70" s="25"/>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="26"/>
+      <c r="A71" s="28"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
       <c r="D71" s="18" t="n">
@@ -1662,7 +1741,7 @@
       <c r="G71" s="25"/>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="26"/>
+      <c r="A72" s="28"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
       <c r="D72" s="18" t="n">
@@ -1674,7 +1753,7 @@
       <c r="G72" s="25"/>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="26"/>
+      <c r="A73" s="28"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
       <c r="D73" s="18" t="n">
@@ -1686,7 +1765,7 @@
       <c r="G73" s="25"/>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="26"/>
+      <c r="A74" s="28"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
       <c r="D74" s="18" t="n">
@@ -1698,7 +1777,7 @@
       <c r="G74" s="25"/>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="26"/>
+      <c r="A75" s="28"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
       <c r="D75" s="18" t="n">
@@ -1710,7 +1789,7 @@
       <c r="G75" s="25"/>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="26"/>
+      <c r="A76" s="28"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
       <c r="D76" s="18" t="n">
@@ -1722,7 +1801,7 @@
       <c r="G76" s="25"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="26"/>
+      <c r="A77" s="28"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
       <c r="D77" s="18" t="n">
@@ -1734,7 +1813,7 @@
       <c r="G77" s="25"/>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="26"/>
+      <c r="A78" s="28"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
       <c r="D78" s="18" t="n">
@@ -1746,7 +1825,7 @@
       <c r="G78" s="25"/>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="26"/>
+      <c r="A79" s="28"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
       <c r="D79" s="18" t="n">
@@ -1758,7 +1837,7 @@
       <c r="G79" s="25"/>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="26"/>
+      <c r="A80" s="28"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
       <c r="D80" s="18" t="n">
@@ -1770,7 +1849,7 @@
       <c r="G80" s="25"/>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="26"/>
+      <c r="A81" s="28"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
       <c r="D81" s="18" t="n">
@@ -1782,7 +1861,7 @@
       <c r="G81" s="25"/>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="26"/>
+      <c r="A82" s="28"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
       <c r="D82" s="18" t="n">
@@ -1794,7 +1873,7 @@
       <c r="G82" s="25"/>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="26"/>
+      <c r="A83" s="28"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
       <c r="D83" s="18" t="n">
@@ -1806,7 +1885,7 @@
       <c r="G83" s="25"/>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="26"/>
+      <c r="A84" s="28"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
       <c r="D84" s="18" t="n">
@@ -1818,7 +1897,7 @@
       <c r="G84" s="25"/>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="26"/>
+      <c r="A85" s="28"/>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
       <c r="D85" s="18" t="n">
@@ -1830,7 +1909,7 @@
       <c r="G85" s="25"/>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="26"/>
+      <c r="A86" s="28"/>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
       <c r="D86" s="18" t="n">
@@ -1842,7 +1921,7 @@
       <c r="G86" s="25"/>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="26"/>
+      <c r="A87" s="28"/>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
       <c r="D87" s="18" t="n">
@@ -1854,7 +1933,7 @@
       <c r="G87" s="25"/>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="26"/>
+      <c r="A88" s="28"/>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
       <c r="D88" s="18" t="n">
@@ -1866,7 +1945,7 @@
       <c r="G88" s="25"/>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="26"/>
+      <c r="A89" s="28"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
       <c r="D89" s="18" t="n">
@@ -1878,7 +1957,7 @@
       <c r="G89" s="25"/>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="26"/>
+      <c r="A90" s="28"/>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
       <c r="D90" s="18" t="n">
@@ -1890,7 +1969,7 @@
       <c r="G90" s="25"/>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="26"/>
+      <c r="A91" s="28"/>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
       <c r="D91" s="18" t="n">
@@ -1902,30 +1981,30 @@
       <c r="G91" s="25"/>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="27"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
+      <c r="A92" s="29"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
       <c r="D92" s="18" t="n">
         <f aca="false">C92-B92</f>
         <v>0</v>
       </c>
-      <c r="E92" s="29"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="33"/>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="32"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="34" t="s">
+      <c r="A93" s="34"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="35" t="n">
+      <c r="D93" s="37" t="n">
         <f aca="false">SUM(D7:D92)</f>
         <v>3.75</v>
       </c>
-      <c r="E93" s="36"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="38"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1955,54 +2034,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="40" t="s">
-        <v>25</v>
+      <c r="B6" s="42" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="40" t="s">
-        <v>26</v>
+      <c r="B7" s="42" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="42" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="40" t="s">
-        <v>27</v>
+      <c r="B9" s="42" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="41" t="s">
-        <v>28</v>
+      <c r="B10" s="43" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="40" t="s">
-        <v>29</v>
+      <c r="B11" s="42" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="40" t="s">
-        <v>30</v>
+      <c r="B13" s="42" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Time_Recording.xlsx
+++ b/doc/Time_Recording.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Time Recording" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
   <si>
     <t xml:space="preserve">Time Recording</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t xml:space="preserve">Setting up a GIT Repo (Bitbucket, and finally GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting up Truffle (for developping smart contract) + Mist browser + dependencies (NPM, NodeJS, Electron, Gulp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploying contract remotely &amp; locally + geth on 3 nodes</t>
   </si>
   <si>
     <t xml:space="preserve">Administration</t>
@@ -140,7 +146,7 @@
     <numFmt numFmtId="168" formatCode="[H]:MM"/>
     <numFmt numFmtId="169" formatCode="H:MM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -193,12 +199,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -328,7 +328,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -433,14 +433,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -497,7 +489,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -588,16 +580,17 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="46.9795918367347"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -638,7 +631,7 @@
       </c>
       <c r="B4" s="11" t="n">
         <f aca="false">SUM(D7:D92)</f>
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
@@ -921,7 +914,7 @@
       <c r="E16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="24" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="25" t="s">
@@ -1052,7 +1045,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="n">
+      <c r="A22" s="26" t="n">
         <v>42660</v>
       </c>
       <c r="B22" s="22" t="n">
@@ -1200,35 +1193,55 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="26" t="n">
         <f aca="false">DATE(YEAR(A27),MONTH(A27),DAY(A27)+1)</f>
         <v>42663</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="B28" s="22" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="C28" s="22" t="n">
+        <v>0.520833333333333</v>
+      </c>
       <c r="D28" s="18" t="n">
         <f aca="false">C28-B28</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0833333333333334</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="26" t="n">
         <f aca="false">DATE(YEAR(A28),MONTH(A28),DAY(A28)+1)</f>
         <v>42664</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+      <c r="B29" s="22" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="C29" s="22" t="n">
+        <v>0.729166666666667</v>
+      </c>
       <c r="D29" s="18" t="n">
         <f aca="false">C29-B29</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="26" t="n">
@@ -1261,7 +1274,7 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="18" t="n">
@@ -1273,7 +1286,7 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="28"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="18" t="n">
@@ -1285,7 +1298,7 @@
       <c r="G33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="18" t="n">
@@ -1297,7 +1310,7 @@
       <c r="G34" s="25"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="18" t="n">
@@ -1309,7 +1322,7 @@
       <c r="G35" s="25"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="18" t="n">
@@ -1321,7 +1334,7 @@
       <c r="G36" s="25"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="28"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="18" t="n">
@@ -1333,7 +1346,7 @@
       <c r="G37" s="25"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="28"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="18" t="n">
@@ -1345,7 +1358,7 @@
       <c r="G38" s="25"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="28"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="18" t="n">
@@ -1357,7 +1370,7 @@
       <c r="G39" s="25"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="28"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="18" t="n">
@@ -1369,7 +1382,7 @@
       <c r="G40" s="25"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="28"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="18" t="n">
@@ -1381,7 +1394,7 @@
       <c r="G41" s="25"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="28"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
       <c r="D42" s="18" t="n">
@@ -1393,7 +1406,7 @@
       <c r="G42" s="25"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="28"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="18" t="n">
@@ -1405,7 +1418,7 @@
       <c r="G43" s="25"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="28"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
       <c r="D44" s="18" t="n">
@@ -1417,7 +1430,7 @@
       <c r="G44" s="25"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="28"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
       <c r="D45" s="18" t="n">
@@ -1429,7 +1442,7 @@
       <c r="G45" s="25"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="28"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="18" t="n">
@@ -1441,7 +1454,7 @@
       <c r="G46" s="25"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="28"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
       <c r="D47" s="18" t="n">
@@ -1453,7 +1466,7 @@
       <c r="G47" s="25"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="28"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="18" t="n">
@@ -1465,7 +1478,7 @@
       <c r="G48" s="25"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="28"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="18" t="n">
@@ -1477,7 +1490,7 @@
       <c r="G49" s="25"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="28"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="18" t="n">
@@ -1489,7 +1502,7 @@
       <c r="G50" s="25"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="28"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="18" t="n">
@@ -1501,7 +1514,7 @@
       <c r="G51" s="25"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="28"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
       <c r="D52" s="18" t="n">
@@ -1513,7 +1526,7 @@
       <c r="G52" s="25"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="28"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
       <c r="D53" s="18" t="n">
@@ -1525,7 +1538,7 @@
       <c r="G53" s="25"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="28"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="18" t="n">
@@ -1537,7 +1550,7 @@
       <c r="G54" s="23"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="28"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
       <c r="D55" s="18" t="n">
@@ -1549,7 +1562,7 @@
       <c r="G55" s="23"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="28"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
       <c r="D56" s="18" t="n">
@@ -1561,7 +1574,7 @@
       <c r="G56" s="23"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="28"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
       <c r="D57" s="18" t="n">
@@ -1573,7 +1586,7 @@
       <c r="G57" s="23"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="28"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="18" t="n">
@@ -1585,7 +1598,7 @@
       <c r="G58" s="25"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="28"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
       <c r="D59" s="18" t="n">
@@ -1597,7 +1610,7 @@
       <c r="G59" s="23"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="28"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
       <c r="D60" s="18" t="n">
@@ -1609,7 +1622,7 @@
       <c r="G60" s="23"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="28"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
       <c r="D61" s="18" t="n">
@@ -1621,7 +1634,7 @@
       <c r="G61" s="25"/>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="28"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
       <c r="D62" s="18" t="n">
@@ -1633,7 +1646,7 @@
       <c r="G62" s="25"/>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="28"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
       <c r="D63" s="18" t="n">
@@ -1645,7 +1658,7 @@
       <c r="G63" s="25"/>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="28"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
       <c r="D64" s="18" t="n">
@@ -1657,7 +1670,7 @@
       <c r="G64" s="25"/>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
       <c r="D65" s="18" t="n">
@@ -1669,7 +1682,7 @@
       <c r="G65" s="25"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="28"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
       <c r="D66" s="18" t="n">
@@ -1681,7 +1694,7 @@
       <c r="G66" s="25"/>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="28"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
       <c r="D67" s="18" t="n">
@@ -1693,7 +1706,7 @@
       <c r="G67" s="25"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="28"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
       <c r="D68" s="18" t="n">
@@ -1705,7 +1718,7 @@
       <c r="G68" s="25"/>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="28"/>
+      <c r="A69" s="26"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
       <c r="D69" s="18" t="n">
@@ -1717,7 +1730,7 @@
       <c r="G69" s="25"/>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="28"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
       <c r="D70" s="18" t="n">
@@ -1729,7 +1742,7 @@
       <c r="G70" s="25"/>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="28"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
       <c r="D71" s="18" t="n">
@@ -1741,7 +1754,7 @@
       <c r="G71" s="25"/>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="28"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
       <c r="D72" s="18" t="n">
@@ -1753,7 +1766,7 @@
       <c r="G72" s="25"/>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="28"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
       <c r="D73" s="18" t="n">
@@ -1765,7 +1778,7 @@
       <c r="G73" s="25"/>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="28"/>
+      <c r="A74" s="26"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
       <c r="D74" s="18" t="n">
@@ -1777,7 +1790,7 @@
       <c r="G74" s="25"/>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="28"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
       <c r="D75" s="18" t="n">
@@ -1789,7 +1802,7 @@
       <c r="G75" s="25"/>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="28"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
       <c r="D76" s="18" t="n">
@@ -1801,7 +1814,7 @@
       <c r="G76" s="25"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="28"/>
+      <c r="A77" s="26"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
       <c r="D77" s="18" t="n">
@@ -1813,7 +1826,7 @@
       <c r="G77" s="25"/>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="28"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
       <c r="D78" s="18" t="n">
@@ -1825,7 +1838,7 @@
       <c r="G78" s="25"/>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="28"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
       <c r="D79" s="18" t="n">
@@ -1837,7 +1850,7 @@
       <c r="G79" s="25"/>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="28"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
       <c r="D80" s="18" t="n">
@@ -1849,7 +1862,7 @@
       <c r="G80" s="25"/>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="28"/>
+      <c r="A81" s="26"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
       <c r="D81" s="18" t="n">
@@ -1861,7 +1874,7 @@
       <c r="G81" s="25"/>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="28"/>
+      <c r="A82" s="26"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
       <c r="D82" s="18" t="n">
@@ -1873,7 +1886,7 @@
       <c r="G82" s="25"/>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="28"/>
+      <c r="A83" s="26"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
       <c r="D83" s="18" t="n">
@@ -1885,7 +1898,7 @@
       <c r="G83" s="25"/>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="28"/>
+      <c r="A84" s="26"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
       <c r="D84" s="18" t="n">
@@ -1897,7 +1910,7 @@
       <c r="G84" s="25"/>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="28"/>
+      <c r="A85" s="26"/>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
       <c r="D85" s="18" t="n">
@@ -1909,7 +1922,7 @@
       <c r="G85" s="25"/>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="28"/>
+      <c r="A86" s="26"/>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
       <c r="D86" s="18" t="n">
@@ -1921,7 +1934,7 @@
       <c r="G86" s="25"/>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="28"/>
+      <c r="A87" s="26"/>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
       <c r="D87" s="18" t="n">
@@ -1933,7 +1946,7 @@
       <c r="G87" s="25"/>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="28"/>
+      <c r="A88" s="26"/>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
       <c r="D88" s="18" t="n">
@@ -1945,7 +1958,7 @@
       <c r="G88" s="25"/>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="28"/>
+      <c r="A89" s="26"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
       <c r="D89" s="18" t="n">
@@ -1957,7 +1970,7 @@
       <c r="G89" s="25"/>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="28"/>
+      <c r="A90" s="26"/>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
       <c r="D90" s="18" t="n">
@@ -1969,7 +1982,7 @@
       <c r="G90" s="25"/>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="28"/>
+      <c r="A91" s="26"/>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
       <c r="D91" s="18" t="n">
@@ -1981,30 +1994,30 @@
       <c r="G91" s="25"/>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="29"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
       <c r="D92" s="18" t="n">
         <f aca="false">C92-B92</f>
         <v>0</v>
       </c>
-      <c r="E92" s="31"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="33"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="31"/>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="34"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="36" t="s">
+      <c r="A93" s="32"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="37" t="n">
+      <c r="D93" s="35" t="n">
         <f aca="false">SUM(D7:D92)</f>
-        <v>3.75</v>
-      </c>
-      <c r="E93" s="38"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="40"/>
+        <v>4</v>
+      </c>
+      <c r="E93" s="36"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2034,54 +2047,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.2834008097166"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="42" t="s">
-        <v>29</v>
+      <c r="B6" s="40" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="42" t="s">
-        <v>30</v>
+      <c r="B7" s="40" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="42" t="s">
-        <v>31</v>
+      <c r="B9" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="43" t="s">
-        <v>32</v>
+      <c r="B10" s="41" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="42" t="s">
-        <v>33</v>
+      <c r="B11" s="40" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="42" t="s">
-        <v>34</v>
+      <c r="B13" s="40" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Time_Recording.xlsx
+++ b/doc/Time_Recording.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Time Recording" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
     <t xml:space="preserve">Time Recording</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t xml:space="preserve">Deploying contract remotely &amp; locally + geth on 3 nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seting up a geth cluster with 3 nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly meeting: Set up a geth cluster and define a data structure/scheme for the smart contracts in order to insert inside the blockchain (UUID, identifier,  hash values, URN) </t>
   </si>
   <si>
     <t xml:space="preserve">Administration</t>
@@ -146,7 +152,7 @@
     <numFmt numFmtId="168" formatCode="[H]:MM"/>
     <numFmt numFmtId="169" formatCode="H:MM"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -199,6 +205,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -328,7 +340,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -437,6 +449,14 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -489,7 +509,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -575,22 +595,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="1:93"/>
+  <dimension ref="1:96"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="46.7091836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -604,7 +624,7 @@
       <c r="F1" s="0"/>
       <c r="G1" s="7" t="n">
         <f aca="true">TODAY()</f>
-        <v>42663</v>
+        <v>42667</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,8 +650,8 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="n">
-        <f aca="false">SUM(D7:D92)</f>
-        <v>4</v>
+        <f aca="false">SUM(D7:D95)</f>
+        <v>4.27083333333333</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
@@ -1244,61 +1264,106 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26" t="n">
-        <f aca="false">DATE(YEAR(A29),MONTH(A29),DAY(A29)+1)</f>
-        <v>42665</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="27" t="n">
+        <v>42667</v>
+      </c>
+      <c r="B30" s="22" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C30" s="22" t="n">
+        <v>0.416666666666667</v>
+      </c>
       <c r="D30" s="18" t="n">
         <f aca="false">C30-B30</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26" t="n">
-        <f aca="false">DATE(YEAR(A30),MONTH(A30),DAY(A30)+1)</f>
-        <v>42666</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="27" t="n">
+        <v>42667</v>
+      </c>
+      <c r="B31" s="22" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C31" s="22" t="n">
+        <v>0.458333333333333</v>
+      </c>
       <c r="D31" s="18" t="n">
         <f aca="false">C31-B31</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+        <v>0.0416666666666666</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="27" t="n">
+        <v>42667</v>
+      </c>
+      <c r="B32" s="22" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C32" s="22" t="n">
+        <v>0.520833333333333</v>
+      </c>
       <c r="D32" s="18" t="n">
         <f aca="false">C32-B32</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
+        <v>0.0625000000000001</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
+      <c r="A33" s="27" t="n">
+        <v>42667</v>
+      </c>
+      <c r="B33" s="22" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C33" s="22" t="n">
+        <v>0.708333333333333</v>
+      </c>
       <c r="D33" s="18" t="n">
         <f aca="false">C33-B33</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
+        <v>0.125</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26"/>
+      <c r="A34" s="26" t="n">
+        <f aca="false">DATE(YEAR(A30),MONTH(A30),DAY(A30)+1)</f>
+        <v>42668</v>
+      </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="18" t="n">
@@ -1547,7 +1612,7 @@
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="24"/>
-      <c r="G54" s="23"/>
+      <c r="G54" s="25"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="26"/>
@@ -1559,7 +1624,7 @@
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="24"/>
-      <c r="G55" s="23"/>
+      <c r="G55" s="25"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="26"/>
@@ -1571,7 +1636,7 @@
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="24"/>
-      <c r="G56" s="23"/>
+      <c r="G56" s="25"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="26"/>
@@ -1595,7 +1660,7 @@
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="24"/>
-      <c r="G58" s="25"/>
+      <c r="G58" s="23"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="26"/>
@@ -1633,7 +1698,7 @@
       <c r="F61" s="24"/>
       <c r="G61" s="25"/>
     </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="26"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -1643,9 +1708,9 @@
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="24"/>
-      <c r="G62" s="25"/>
-    </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="23"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="26"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -1655,9 +1720,9 @@
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="24"/>
-      <c r="G63" s="25"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G63" s="23"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="26"/>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -1994,30 +2059,66 @@
       <c r="G91" s="25"/>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="27"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
       <c r="D92" s="18" t="n">
         <f aca="false">C92-B92</f>
         <v>0</v>
       </c>
-      <c r="E92" s="29"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="31"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="25"/>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="32"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="34" t="s">
+      <c r="A93" s="26"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="18" t="n">
+        <f aca="false">C93-B93</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="23"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="25"/>
+    </row>
+    <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="26"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="18" t="n">
+        <f aca="false">C94-B94</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="23"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="25"/>
+    </row>
+    <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="29"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="18" t="n">
+        <f aca="false">C95-B95</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="31"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="33"/>
+    </row>
+    <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="34"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="35" t="n">
-        <f aca="false">SUM(D7:D92)</f>
-        <v>4</v>
-      </c>
-      <c r="E93" s="36"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="38"/>
+      <c r="D96" s="37" t="n">
+        <f aca="false">SUM(D7:D95)</f>
+        <v>4.27083333333333</v>
+      </c>
+      <c r="E96" s="38"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2047,54 +2148,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="40" t="s">
-        <v>31</v>
+      <c r="B6" s="42" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="40" t="s">
-        <v>32</v>
+      <c r="B7" s="42" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="42" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="40" t="s">
-        <v>33</v>
+      <c r="B9" s="42" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="41" t="s">
-        <v>34</v>
+      <c r="B10" s="43" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="40" t="s">
-        <v>35</v>
+      <c r="B11" s="42" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="40" t="s">
-        <v>36</v>
+      <c r="B13" s="42" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Time_Recording.xlsx
+++ b/doc/Time_Recording.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Time Recording" sheetId="1" state="visible" r:id="rId2"/>
@@ -152,13 +152,12 @@
     <numFmt numFmtId="168" formatCode="[H]:MM"/>
     <numFmt numFmtId="169" formatCode="H:MM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -181,7 +180,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -189,7 +187,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -197,18 +194,10 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -217,7 +206,6 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -340,7 +328,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -449,14 +437,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -509,7 +489,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -598,19 +578,19 @@
   <dimension ref="1:96"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="46.7091836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="59.2602040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -624,7 +604,7 @@
       <c r="F1" s="0"/>
       <c r="G1" s="7" t="n">
         <f aca="true">TODAY()</f>
-        <v>42667</v>
+        <v>42695</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,7 +734,7 @@
       </c>
       <c r="D9" s="18" t="n">
         <f aca="false">C9-B9</f>
-        <v>0.083333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>9</v>
@@ -829,7 +809,7 @@
       </c>
       <c r="D12" s="18" t="n">
         <f aca="false">C12-B12</f>
-        <v>0.0416666666666666</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>14</v>
@@ -1039,7 +1019,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="n">
         <f aca="false">DATE(YEAR(A19),MONTH(A19),DAY(A19)+3)</f>
         <v>42660</v>
@@ -1052,7 +1032,7 @@
       </c>
       <c r="D21" s="18" t="n">
         <f aca="false">C21-B21</f>
-        <v>0.0416666666666666</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>14</v>
@@ -1076,7 +1056,7 @@
       </c>
       <c r="D22" s="18" t="n">
         <f aca="false">C22-B22</f>
-        <v>0.0625000000000001</v>
+        <v>0.0625</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>16</v>
@@ -1226,7 +1206,7 @@
       </c>
       <c r="D28" s="18" t="n">
         <f aca="false">C28-B28</f>
-        <v>0.0833333333333334</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>16</v>
@@ -1264,7 +1244,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27" t="n">
+      <c r="A30" s="26" t="n">
         <v>42667</v>
       </c>
       <c r="B30" s="22" t="n">
@@ -1288,7 +1268,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27" t="n">
+      <c r="A31" s="26" t="n">
         <v>42667</v>
       </c>
       <c r="B31" s="22" t="n">
@@ -1299,12 +1279,12 @@
       </c>
       <c r="D31" s="18" t="n">
         <f aca="false">C31-B31</f>
-        <v>0.0416666666666666</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="24" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="25" t="s">
@@ -1312,7 +1292,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27" t="n">
+      <c r="A32" s="26" t="n">
         <v>42667</v>
       </c>
       <c r="B32" s="22" t="n">
@@ -1323,7 +1303,7 @@
       </c>
       <c r="D32" s="18" t="n">
         <f aca="false">C32-B32</f>
-        <v>0.0625000000000001</v>
+        <v>0.0625</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>16</v>
@@ -1336,7 +1316,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27" t="n">
+      <c r="A33" s="26" t="n">
         <v>42667</v>
       </c>
       <c r="B33" s="22" t="n">
@@ -2095,30 +2075,30 @@
       <c r="G94" s="25"/>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="29"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
       <c r="D95" s="18" t="n">
         <f aca="false">C95-B95</f>
         <v>0</v>
       </c>
-      <c r="E95" s="31"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="33"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="31"/>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="34"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="36" t="s">
+      <c r="A96" s="32"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D96" s="37" t="n">
+      <c r="D96" s="35" t="n">
         <f aca="false">SUM(D7:D95)</f>
         <v>4.27083333333333</v>
       </c>
-      <c r="E96" s="38"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="40"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2148,53 +2128,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="41" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>38</v>
       </c>
     </row>
